--- a/biology/Mycologie/Pertusariales/Pertusariales.xlsx
+++ b/biology/Mycologie/Pertusariales/Pertusariales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Pertusariales sont un ordre de champignons lichénisés dans la classe des Lecanoromycetes. Ce sont pour la plupart des lichens encroûtants. Les analyses de phylogénie moléculaire récentes[1],[2] ne confirment pas la monophylie de l'ordre, ni celle de certaines familles actuellement admises en son sein, ce qui signifie que sa définition et sa composition sont probablement susceptibles d'être remaniées dans l'avenir.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Pertusariales sont un ordre de champignons lichénisés dans la classe des Lecanoromycetes. Ce sont pour la plupart des lichens encroûtants. Les analyses de phylogénie moléculaire récentes, ne confirment pas la monophylie de l'ordre, ni celle de certaines familles actuellement admises en son sein, ce qui signifie que sa définition et sa composition sont probablement susceptibles d'être remaniées dans l'avenir.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Myconet[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Myconet :
 Coccotremataceae
 Icmadophilaceae
 Megasporaceae
